--- a/data_generation/SetData-sheets.xlsx
+++ b/data_generation/SetData-sheets.xlsx
@@ -12189,7 +12189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12232,6 +12232,11 @@
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data_generation/SetData-sheets.xlsx
+++ b/data_generation/SetData-sheets.xlsx
@@ -570,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2294"/>
+  <dimension ref="A1:A1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6458,5596 +6458,6 @@
     <row r="1176">
       <c r="A1176" t="n">
         <v>1175</v>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="n">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="n">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="n">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="n">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="n">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="n">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="n">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="n">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="n">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="n">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="n">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="n">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="n">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="n">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="n">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="n">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="n">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="n">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="n">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="n">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="n">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="n">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="n">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="n">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="n">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="n">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="n">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="n">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="n">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="n">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="n">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="n">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="n">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="n">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="n">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="n">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="n">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="n">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="n">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="n">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="n">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="n">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="n">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="n">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="n">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="n">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="n">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="n">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="n">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="n">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="n">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="n">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="n">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="n">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="n">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="n">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="n">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="n">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="n">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="n">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="n">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="n">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="n">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="n">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="n">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="n">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="n">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="n">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="n">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="n">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="n">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="n">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="n">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="n">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="n">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="n">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="n">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="n">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="n">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="n">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="n">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="n">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="n">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="n">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="n">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="n">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="n">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="n">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="n">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="n">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="n">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="n">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="n">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="n">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="n">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="n">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="n">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="n">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="n">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="n">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="n">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="n">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="n">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="n">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="n">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="n">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="n">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="n">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="n">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="n">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="n">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="n">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="n">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="n">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="n">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="n">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="n">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="n">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="n">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="n">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="n">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="n">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="n">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="n">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="n">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="n">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="n">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="n">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="n">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="n">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="n">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="n">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="n">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="n">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="n">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="n">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="n">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="n">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="n">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="n">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="n">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="n">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="n">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="n">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="n">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="n">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="n">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="n">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="n">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="n">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="n">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="n">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="n">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="n">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="n">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="n">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="n">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="n">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="n">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="n">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="n">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="n">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="n">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="n">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="n">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="n">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="n">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="n">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="n">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="n">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="n">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="n">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="n">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="n">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="n">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="n">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="n">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="n">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="n">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="n">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="n">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="n">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="n">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="n">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="n">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="n">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="n">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="n">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="n">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="n">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="n">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="n">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="n">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="n">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="n">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="n">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="n">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="n">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="n">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="n">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="n">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="n">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="1382">
-      <c r="A1382" t="n">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="1383">
-      <c r="A1383" t="n">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="n">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="n">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="n">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="n">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="n">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="1389">
-      <c r="A1389" t="n">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="n">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="n">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="n">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="n">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="n">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="n">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="n">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="n">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="n">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="n">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="n">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="n">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="n">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="n">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="n">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="n">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="n">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="n">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="n">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="n">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="n">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="n">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="n">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="n">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="n">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="n">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="n">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="n">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="n">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="n">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="n">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="n">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="n">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="n">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="n">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="n">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="n">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="n">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="n">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="n">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="n">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="n">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="n">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="n">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="n">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="n">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="n">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="n">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="n">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="n">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="n">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="n">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="n">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="n">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="n">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="n">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="n">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="n">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="n">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="n">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="n">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="n">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="n">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="n">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="n">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="n">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="n">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="n">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="n">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="n">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="n">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="n">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="n">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="n">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="n">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="n">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="n">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="n">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="n">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="n">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="n">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="n">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="n">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="n">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="n">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="n">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="n">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="n">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="n">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="n">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="n">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="n">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="n">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="n">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="n">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="n">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="n">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="n">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="n">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="n">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="n">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="n">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="n">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="n">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="n">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="n">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="n">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="n">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="n">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="n">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="n">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="n">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="n">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="n">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="n">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="n">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="n">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="n">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="n">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="n">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="n">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="n">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="n">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="n">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="n">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="n">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="n">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="n">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="n">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="n">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="n">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="n">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="n">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="n">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="n">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="n">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="n">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="n">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="n">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="n">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="n">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="n">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="n">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="n">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="n">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="n">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="n">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="n">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="n">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="n">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="n">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="n">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="n">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="n">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="n">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="n">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="n">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="n">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="n">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="n">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="n">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="n">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="n">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="n">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="n">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="n">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="n">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="n">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="n">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="n">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="n">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="n">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="n">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="n">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="n">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="n">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="n">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="n">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="n">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="n">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="n">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="n">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="n">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="n">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="n">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="n">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="n">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="n">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="n">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="n">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="n">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="n">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="n">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="n">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="n">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="n">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="n">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="n">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="n">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="n">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="n">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="n">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="n">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="n">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="n">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="n">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="n">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="n">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="1605">
-      <c r="A1605" t="n">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="1606">
-      <c r="A1606" t="n">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="1607">
-      <c r="A1607" t="n">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="n">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="n">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="n">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="n">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="n">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="n">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="n">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="n">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="n">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="n">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="n">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="n">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="n">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="n">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="n">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="n">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="n">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="n">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="n">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="n">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="n">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="n">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="n">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="n">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="n">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="n">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="n">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="n">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="n">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="n">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="n">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="n">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="n">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="n">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="n">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="n">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="n">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="n">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="n">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="n">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="n">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="n">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="n">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="n">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="n">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="n">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="n">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="n">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="n">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="n">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="n">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="n">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="n">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="n">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="n">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="n">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="n">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="n">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="n">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="n">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="n">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="n">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="n">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="n">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="n">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="n">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="n">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="n">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="n">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="n">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="n">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="n">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="n">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="n">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="n">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="n">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="n">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="n">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="n">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="n">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="n">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="n">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="n">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="n">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="n">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="n">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="n">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="n">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="n">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="n">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="n">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="n">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="n">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="n">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="n">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="n">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="n">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="n">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="n">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="n">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="n">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="n">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="n">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="n">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="n">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="n">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" t="n">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="n">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="n">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="n">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="n">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="n">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="n">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="n">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" t="n">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" t="n">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" t="n">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" t="n">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1729">
-      <c r="A1729" t="n">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="1730">
-      <c r="A1730" t="n">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="1731">
-      <c r="A1731" t="n">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="1732">
-      <c r="A1732" t="n">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="1733">
-      <c r="A1733" t="n">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="1734">
-      <c r="A1734" t="n">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="1735">
-      <c r="A1735" t="n">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="1736">
-      <c r="A1736" t="n">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1737">
-      <c r="A1737" t="n">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="1738">
-      <c r="A1738" t="n">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="1739">
-      <c r="A1739" t="n">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1740">
-      <c r="A1740" t="n">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1741">
-      <c r="A1741" t="n">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="1742">
-      <c r="A1742" t="n">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="1743">
-      <c r="A1743" t="n">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="1744">
-      <c r="A1744" t="n">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="1745">
-      <c r="A1745" t="n">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="1746">
-      <c r="A1746" t="n">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="1747">
-      <c r="A1747" t="n">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="1748">
-      <c r="A1748" t="n">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="1749">
-      <c r="A1749" t="n">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="1750">
-      <c r="A1750" t="n">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1751">
-      <c r="A1751" t="n">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1752">
-      <c r="A1752" t="n">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1753">
-      <c r="A1753" t="n">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1754">
-      <c r="A1754" t="n">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="1755">
-      <c r="A1755" t="n">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="1756">
-      <c r="A1756" t="n">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="1757">
-      <c r="A1757" t="n">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="1758">
-      <c r="A1758" t="n">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="1759">
-      <c r="A1759" t="n">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="1760">
-      <c r="A1760" t="n">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="1761">
-      <c r="A1761" t="n">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="1762">
-      <c r="A1762" t="n">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="1763">
-      <c r="A1763" t="n">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="1764">
-      <c r="A1764" t="n">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="1765">
-      <c r="A1765" t="n">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="1766">
-      <c r="A1766" t="n">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="1767">
-      <c r="A1767" t="n">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="1768">
-      <c r="A1768" t="n">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="1769">
-      <c r="A1769" t="n">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="1770">
-      <c r="A1770" t="n">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1771">
-      <c r="A1771" t="n">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="1772">
-      <c r="A1772" t="n">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="1773">
-      <c r="A1773" t="n">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="1774">
-      <c r="A1774" t="n">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="1775">
-      <c r="A1775" t="n">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="1776">
-      <c r="A1776" t="n">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="1777">
-      <c r="A1777" t="n">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="1778">
-      <c r="A1778" t="n">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="1779">
-      <c r="A1779" t="n">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="1780">
-      <c r="A1780" t="n">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1781">
-      <c r="A1781" t="n">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1782">
-      <c r="A1782" t="n">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="1783">
-      <c r="A1783" t="n">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1784">
-      <c r="A1784" t="n">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="1785">
-      <c r="A1785" t="n">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="1786">
-      <c r="A1786" t="n">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="1787">
-      <c r="A1787" t="n">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="1788">
-      <c r="A1788" t="n">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="1789">
-      <c r="A1789" t="n">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="1790">
-      <c r="A1790" t="n">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="1791">
-      <c r="A1791" t="n">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="1792">
-      <c r="A1792" t="n">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1793">
-      <c r="A1793" t="n">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="1794">
-      <c r="A1794" t="n">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="1795">
-      <c r="A1795" t="n">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="1796">
-      <c r="A1796" t="n">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="1797">
-      <c r="A1797" t="n">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="1798">
-      <c r="A1798" t="n">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="1799">
-      <c r="A1799" t="n">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="1800">
-      <c r="A1800" t="n">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1801">
-      <c r="A1801" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="1802">
-      <c r="A1802" t="n">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="1803">
-      <c r="A1803" t="n">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="1804">
-      <c r="A1804" t="n">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="1805">
-      <c r="A1805" t="n">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1806">
-      <c r="A1806" t="n">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="1807">
-      <c r="A1807" t="n">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1808">
-      <c r="A1808" t="n">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="1809">
-      <c r="A1809" t="n">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="1810">
-      <c r="A1810" t="n">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="1811">
-      <c r="A1811" t="n">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="1812">
-      <c r="A1812" t="n">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="1813">
-      <c r="A1813" t="n">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="1814">
-      <c r="A1814" t="n">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="1815">
-      <c r="A1815" t="n">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1816">
-      <c r="A1816" t="n">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="1817">
-      <c r="A1817" t="n">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="1818">
-      <c r="A1818" t="n">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="1819">
-      <c r="A1819" t="n">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="1820">
-      <c r="A1820" t="n">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1821">
-      <c r="A1821" t="n">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1822">
-      <c r="A1822" t="n">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="1823">
-      <c r="A1823" t="n">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="1824">
-      <c r="A1824" t="n">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="1825">
-      <c r="A1825" t="n">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="1826">
-      <c r="A1826" t="n">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="1827">
-      <c r="A1827" t="n">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="1828">
-      <c r="A1828" t="n">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1829">
-      <c r="A1829" t="n">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="1830">
-      <c r="A1830" t="n">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="1831">
-      <c r="A1831" t="n">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="1832">
-      <c r="A1832" t="n">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="1833">
-      <c r="A1833" t="n">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="1834">
-      <c r="A1834" t="n">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1835">
-      <c r="A1835" t="n">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="1836">
-      <c r="A1836" t="n">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="1837">
-      <c r="A1837" t="n">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="1838">
-      <c r="A1838" t="n">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="1839">
-      <c r="A1839" t="n">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="1840">
-      <c r="A1840" t="n">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="1841">
-      <c r="A1841" t="n">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="1842">
-      <c r="A1842" t="n">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1843">
-      <c r="A1843" t="n">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="1844">
-      <c r="A1844" t="n">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="1845">
-      <c r="A1845" t="n">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1846">
-      <c r="A1846" t="n">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="1847">
-      <c r="A1847" t="n">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1848">
-      <c r="A1848" t="n">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="1849">
-      <c r="A1849" t="n">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="1850">
-      <c r="A1850" t="n">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="1851">
-      <c r="A1851" t="n">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="1852">
-      <c r="A1852" t="n">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="1853">
-      <c r="A1853" t="n">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="1854">
-      <c r="A1854" t="n">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="1855">
-      <c r="A1855" t="n">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="1856">
-      <c r="A1856" t="n">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="1857">
-      <c r="A1857" t="n">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="1858">
-      <c r="A1858" t="n">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="1859">
-      <c r="A1859" t="n">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="1860">
-      <c r="A1860" t="n">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="1861">
-      <c r="A1861" t="n">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="1862">
-      <c r="A1862" t="n">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="1863">
-      <c r="A1863" t="n">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="1864">
-      <c r="A1864" t="n">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="1865">
-      <c r="A1865" t="n">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="1866">
-      <c r="A1866" t="n">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="1867">
-      <c r="A1867" t="n">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="1868">
-      <c r="A1868" t="n">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="1869">
-      <c r="A1869" t="n">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="1870">
-      <c r="A1870" t="n">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="1871">
-      <c r="A1871" t="n">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="1872">
-      <c r="A1872" t="n">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="1873">
-      <c r="A1873" t="n">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="1874">
-      <c r="A1874" t="n">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="1875">
-      <c r="A1875" t="n">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="1876">
-      <c r="A1876" t="n">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="1877">
-      <c r="A1877" t="n">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="1878">
-      <c r="A1878" t="n">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1879">
-      <c r="A1879" t="n">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="1880">
-      <c r="A1880" t="n">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="1881">
-      <c r="A1881" t="n">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="1882">
-      <c r="A1882" t="n">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="1883">
-      <c r="A1883" t="n">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="1884">
-      <c r="A1884" t="n">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" t="n">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" t="n">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" t="n">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" t="n">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" t="n">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" t="n">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" t="n">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" t="n">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" t="n">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" t="n">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" t="n">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" t="n">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" t="n">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" t="n">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" t="n">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" t="n">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" t="n">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" t="n">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" t="n">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" t="n">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="1906">
-      <c r="A1906" t="n">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" t="n">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" t="n">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" t="n">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" t="n">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" t="n">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" t="n">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" t="n">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" t="n">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" t="n">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" t="n">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" t="n">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" t="n">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" t="n">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" t="n">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" t="n">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" t="n">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" t="n">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" t="n">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" t="n">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" t="n">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" t="n">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" t="n">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" t="n">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" t="n">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" t="n">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" t="n">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" t="n">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" t="n">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" t="n">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" t="n">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" t="n">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" t="n">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" t="n">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" t="n">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" t="n">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="1942">
-      <c r="A1942" t="n">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="1943">
-      <c r="A1943" t="n">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="1944">
-      <c r="A1944" t="n">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="1945">
-      <c r="A1945" t="n">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="1946">
-      <c r="A1946" t="n">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="1947">
-      <c r="A1947" t="n">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="1948">
-      <c r="A1948" t="n">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="1949">
-      <c r="A1949" t="n">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="1950">
-      <c r="A1950" t="n">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="1951">
-      <c r="A1951" t="n">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="1952">
-      <c r="A1952" t="n">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="1953">
-      <c r="A1953" t="n">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="1954">
-      <c r="A1954" t="n">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="1955">
-      <c r="A1955" t="n">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="1956">
-      <c r="A1956" t="n">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="1957">
-      <c r="A1957" t="n">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="1958">
-      <c r="A1958" t="n">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="1959">
-      <c r="A1959" t="n">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="1960">
-      <c r="A1960" t="n">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="1961">
-      <c r="A1961" t="n">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="1962">
-      <c r="A1962" t="n">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="n">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="n">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="n">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="n">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="n">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="n">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="n">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="n">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="n">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="1972">
-      <c r="A1972" t="n">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" t="n">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" t="n">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" t="n">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" t="n">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" t="n">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" t="n">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" t="n">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" t="n">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" t="n">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" t="n">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="n">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="n">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="n">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="n">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="n">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="n">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="n">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="n">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="n">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="n">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="n">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="n">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="n">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="n">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="n">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="n">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="n">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="n">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="n">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="n">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="n">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="n">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="n">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="n">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="n">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="n">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="n">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="n">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="n">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="n">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="n">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="n">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="n">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="n">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="n">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="n">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="n">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="n">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="n">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="n">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="n">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="n">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="n">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="n">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="n">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="n">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="n">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="n">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="n">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="n">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="n">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="n">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="n">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="n">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="n">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="n">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="n">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="n">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="n">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="n">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="n">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="n">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="n">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="n">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="n">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="n">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="2058">
-      <c r="A2058" t="n">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="2059">
-      <c r="A2059" t="n">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="2060">
-      <c r="A2060" t="n">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="2061">
-      <c r="A2061" t="n">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="2062">
-      <c r="A2062" t="n">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="2063">
-      <c r="A2063" t="n">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="2064">
-      <c r="A2064" t="n">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="2065">
-      <c r="A2065" t="n">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="2066">
-      <c r="A2066" t="n">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="2067">
-      <c r="A2067" t="n">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="2068">
-      <c r="A2068" t="n">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="2069">
-      <c r="A2069" t="n">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="2070">
-      <c r="A2070" t="n">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="2071">
-      <c r="A2071" t="n">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="2072">
-      <c r="A2072" t="n">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="2073">
-      <c r="A2073" t="n">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="2074">
-      <c r="A2074" t="n">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="2075">
-      <c r="A2075" t="n">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="2076">
-      <c r="A2076" t="n">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" t="n">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" t="n">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="2079">
-      <c r="A2079" t="n">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="2080">
-      <c r="A2080" t="n">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="2081">
-      <c r="A2081" t="n">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="2082">
-      <c r="A2082" t="n">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="2083">
-      <c r="A2083" t="n">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="2084">
-      <c r="A2084" t="n">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="2085">
-      <c r="A2085" t="n">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="2086">
-      <c r="A2086" t="n">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="2087">
-      <c r="A2087" t="n">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="2088">
-      <c r="A2088" t="n">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="2089">
-      <c r="A2089" t="n">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="2090">
-      <c r="A2090" t="n">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="2091">
-      <c r="A2091" t="n">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="2092">
-      <c r="A2092" t="n">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="2093">
-      <c r="A2093" t="n">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="2094">
-      <c r="A2094" t="n">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="2095">
-      <c r="A2095" t="n">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="2096">
-      <c r="A2096" t="n">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="2097">
-      <c r="A2097" t="n">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="2098">
-      <c r="A2098" t="n">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="2099">
-      <c r="A2099" t="n">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="2100">
-      <c r="A2100" t="n">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="2101">
-      <c r="A2101" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="2102">
-      <c r="A2102" t="n">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="2103">
-      <c r="A2103" t="n">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="2104">
-      <c r="A2104" t="n">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="2105">
-      <c r="A2105" t="n">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="2106">
-      <c r="A2106" t="n">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="2107">
-      <c r="A2107" t="n">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="2108">
-      <c r="A2108" t="n">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="2109">
-      <c r="A2109" t="n">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="2110">
-      <c r="A2110" t="n">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="2111">
-      <c r="A2111" t="n">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="2112">
-      <c r="A2112" t="n">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="2113">
-      <c r="A2113" t="n">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="2114">
-      <c r="A2114" t="n">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="2115">
-      <c r="A2115" t="n">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="2116">
-      <c r="A2116" t="n">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="2117">
-      <c r="A2117" t="n">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="2118">
-      <c r="A2118" t="n">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="2119">
-      <c r="A2119" t="n">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="2120">
-      <c r="A2120" t="n">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="2121">
-      <c r="A2121" t="n">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="2122">
-      <c r="A2122" t="n">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="2123">
-      <c r="A2123" t="n">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="2124">
-      <c r="A2124" t="n">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="2125">
-      <c r="A2125" t="n">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="2126">
-      <c r="A2126" t="n">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="2127">
-      <c r="A2127" t="n">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="2128">
-      <c r="A2128" t="n">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="2129">
-      <c r="A2129" t="n">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="2130">
-      <c r="A2130" t="n">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="2131">
-      <c r="A2131" t="n">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="2132">
-      <c r="A2132" t="n">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="2133">
-      <c r="A2133" t="n">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="2134">
-      <c r="A2134" t="n">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="2135">
-      <c r="A2135" t="n">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="2136">
-      <c r="A2136" t="n">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="2137">
-      <c r="A2137" t="n">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="2138">
-      <c r="A2138" t="n">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="2139">
-      <c r="A2139" t="n">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="2140">
-      <c r="A2140" t="n">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="2141">
-      <c r="A2141" t="n">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="2142">
-      <c r="A2142" t="n">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="2143">
-      <c r="A2143" t="n">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="2144">
-      <c r="A2144" t="n">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="2145">
-      <c r="A2145" t="n">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="2146">
-      <c r="A2146" t="n">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="2147">
-      <c r="A2147" t="n">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="2148">
-      <c r="A2148" t="n">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="2149">
-      <c r="A2149" t="n">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="2150">
-      <c r="A2150" t="n">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="2151">
-      <c r="A2151" t="n">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="2152">
-      <c r="A2152" t="n">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="2153">
-      <c r="A2153" t="n">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="2154">
-      <c r="A2154" t="n">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="2155">
-      <c r="A2155" t="n">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="2156">
-      <c r="A2156" t="n">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="2157">
-      <c r="A2157" t="n">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="2158">
-      <c r="A2158" t="n">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="2159">
-      <c r="A2159" t="n">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" t="n">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="2161">
-      <c r="A2161" t="n">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="2162">
-      <c r="A2162" t="n">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="2163">
-      <c r="A2163" t="n">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="2164">
-      <c r="A2164" t="n">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="2165">
-      <c r="A2165" t="n">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" t="n">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="2167">
-      <c r="A2167" t="n">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="2168">
-      <c r="A2168" t="n">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="2169">
-      <c r="A2169" t="n">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" t="n">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" t="n">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" t="n">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" t="n">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" t="n">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="2175">
-      <c r="A2175" t="n">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="2176">
-      <c r="A2176" t="n">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2177">
-      <c r="A2177" t="n">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="2178">
-      <c r="A2178" t="n">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="2179">
-      <c r="A2179" t="n">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="2180">
-      <c r="A2180" t="n">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="2181">
-      <c r="A2181" t="n">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="2182">
-      <c r="A2182" t="n">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="2183">
-      <c r="A2183" t="n">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="2184">
-      <c r="A2184" t="n">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2185">
-      <c r="A2185" t="n">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="2186">
-      <c r="A2186" t="n">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="2187">
-      <c r="A2187" t="n">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="2188">
-      <c r="A2188" t="n">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="2189">
-      <c r="A2189" t="n">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="2190">
-      <c r="A2190" t="n">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="2191">
-      <c r="A2191" t="n">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="2192">
-      <c r="A2192" t="n">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="2193">
-      <c r="A2193" t="n">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="2194">
-      <c r="A2194" t="n">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="2195">
-      <c r="A2195" t="n">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="2196">
-      <c r="A2196" t="n">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="2197">
-      <c r="A2197" t="n">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="2198">
-      <c r="A2198" t="n">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="2199">
-      <c r="A2199" t="n">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="2200">
-      <c r="A2200" t="n">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="2201">
-      <c r="A2201" t="n">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="2202">
-      <c r="A2202" t="n">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="2203">
-      <c r="A2203" t="n">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" t="n">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="2205">
-      <c r="A2205" t="n">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="2206">
-      <c r="A2206" t="n">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="2207">
-      <c r="A2207" t="n">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="2208">
-      <c r="A2208" t="n">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="2209">
-      <c r="A2209" t="n">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="2210">
-      <c r="A2210" t="n">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="2211">
-      <c r="A2211" t="n">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="2212">
-      <c r="A2212" t="n">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="2213">
-      <c r="A2213" t="n">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="2214">
-      <c r="A2214" t="n">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="2215">
-      <c r="A2215" t="n">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="2216">
-      <c r="A2216" t="n">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="2217">
-      <c r="A2217" t="n">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="2218">
-      <c r="A2218" t="n">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="2219">
-      <c r="A2219" t="n">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="2220">
-      <c r="A2220" t="n">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="2221">
-      <c r="A2221" t="n">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="2222">
-      <c r="A2222" t="n">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="2223">
-      <c r="A2223" t="n">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="2224">
-      <c r="A2224" t="n">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="2225">
-      <c r="A2225" t="n">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="2226">
-      <c r="A2226" t="n">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="2227">
-      <c r="A2227" t="n">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="2228">
-      <c r="A2228" t="n">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="2229">
-      <c r="A2229" t="n">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="2230">
-      <c r="A2230" t="n">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="2231">
-      <c r="A2231" t="n">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="2232">
-      <c r="A2232" t="n">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="2233">
-      <c r="A2233" t="n">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="2234">
-      <c r="A2234" t="n">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="2235">
-      <c r="A2235" t="n">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="2236">
-      <c r="A2236" t="n">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="2237">
-      <c r="A2237" t="n">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="2238">
-      <c r="A2238" t="n">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="2239">
-      <c r="A2239" t="n">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="2240">
-      <c r="A2240" t="n">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="2241">
-      <c r="A2241" t="n">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="2242">
-      <c r="A2242" t="n">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="2243">
-      <c r="A2243" t="n">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="2244">
-      <c r="A2244" t="n">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="2245">
-      <c r="A2245" t="n">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2246">
-      <c r="A2246" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="2247">
-      <c r="A2247" t="n">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="2248">
-      <c r="A2248" t="n">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="2249">
-      <c r="A2249" t="n">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="2250">
-      <c r="A2250" t="n">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="2251">
-      <c r="A2251" t="n">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="2252">
-      <c r="A2252" t="n">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="2253">
-      <c r="A2253" t="n">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="2254">
-      <c r="A2254" t="n">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="2255">
-      <c r="A2255" t="n">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="2256">
-      <c r="A2256" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="2257">
-      <c r="A2257" t="n">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="2258">
-      <c r="A2258" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="2259">
-      <c r="A2259" t="n">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="2260">
-      <c r="A2260" t="n">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="2261">
-      <c r="A2261" t="n">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="2262">
-      <c r="A2262" t="n">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="2263">
-      <c r="A2263" t="n">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="2264">
-      <c r="A2264" t="n">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="2265">
-      <c r="A2265" t="n">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="2266">
-      <c r="A2266" t="n">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="2267">
-      <c r="A2267" t="n">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2268">
-      <c r="A2268" t="n">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="2269">
-      <c r="A2269" t="n">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="2270">
-      <c r="A2270" t="n">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="2271">
-      <c r="A2271" t="n">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="2272">
-      <c r="A2272" t="n">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="2273">
-      <c r="A2273" t="n">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="2274">
-      <c r="A2274" t="n">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="2275">
-      <c r="A2275" t="n">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="2276">
-      <c r="A2276" t="n">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="2277">
-      <c r="A2277" t="n">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="2278">
-      <c r="A2278" t="n">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="2279">
-      <c r="A2279" t="n">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="2280">
-      <c r="A2280" t="n">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="2281">
-      <c r="A2281" t="n">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="2282">
-      <c r="A2282" t="n">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="2283">
-      <c r="A2283" t="n">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="2284">
-      <c r="A2284" t="n">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="2285">
-      <c r="A2285" t="n">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="2286">
-      <c r="A2286" t="n">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="2287">
-      <c r="A2287" t="n">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="2288">
-      <c r="A2288" t="n">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="2289">
-      <c r="A2289" t="n">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="2290">
-      <c r="A2290" t="n">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="2291">
-      <c r="A2291" t="n">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="2292">
-      <c r="A2292" t="n">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="2293">
-      <c r="A2293" t="n">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="2294">
-      <c r="A2294" t="n">
-        <v>2293</v>
       </c>
     </row>
   </sheetData>
@@ -12366,7 +6776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12396,6 +6806,491 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_generation/SetData-sheets.xlsx
+++ b/data_generation/SetData-sheets.xlsx
@@ -6471,7 +6471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6509,6 +6509,11 @@
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6558,7 +6563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6588,6 +6593,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6599,7 +6609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6647,6 +6657,16 @@
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6776,7 +6796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6836,461 +6856,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
